--- a/P3/原数据（有缺失值）.xlsx
+++ b/P3/原数据（有缺失值）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10610"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="毕业论文" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">毕业论文!$C$1:$C$354</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -202,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -226,34 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -267,14 +252,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,6 +291,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -364,7 +356,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,55 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,31 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +464,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,7 +488,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,7 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,6 +572,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,21 +595,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -629,6 +627,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,148 +700,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -848,52 +861,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1179,9 +1192,9 @@
   <dimension ref="A1:BM407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A404" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A408" sqref="A408"/>
+      <selection pane="bottomLeft" activeCell="C300" sqref="C250:C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14"/>
@@ -1641,7 +1654,6 @@
       <c r="V3">
         <v>2</v>
       </c>
-      <c r="W3"/>
       <c r="X3">
         <v>3</v>
       </c>
@@ -1908,7 +1920,6 @@
       <c r="AT4">
         <v>3</v>
       </c>
-      <c r="AU4"/>
       <c r="AV4">
         <v>3</v>
       </c>
@@ -4667,7 +4678,6 @@
       <c r="AV18">
         <v>3</v>
       </c>
-      <c r="AW18"/>
       <c r="AX18">
         <v>4</v>
       </c>
@@ -4778,7 +4788,6 @@
       <c r="V19">
         <v>5</v>
       </c>
-      <c r="W19"/>
       <c r="X19">
         <v>5</v>
       </c>
@@ -4976,7 +4985,6 @@
       <c r="W20">
         <v>3</v>
       </c>
-      <c r="X20"/>
       <c r="Y20">
         <v>2</v>
       </c>
@@ -5076,7 +5084,6 @@
       <c r="BE20">
         <v>3</v>
       </c>
-      <c r="BF20"/>
       <c r="BG20">
         <v>2</v>
       </c>
@@ -7348,7 +7355,6 @@
       <c r="AA32">
         <v>4</v>
       </c>
-      <c r="AB32"/>
       <c r="AC32">
         <v>4</v>
       </c>
@@ -7677,7 +7683,6 @@
       <c r="H34">
         <v>4</v>
       </c>
-      <c r="I34"/>
       <c r="J34">
         <v>2</v>
       </c>
@@ -8666,7 +8671,6 @@
       <c r="J39">
         <v>4</v>
       </c>
-      <c r="K39"/>
       <c r="L39">
         <v>1</v>
       </c>
@@ -9058,8 +9062,6 @@
       <c r="J41">
         <v>2</v>
       </c>
-      <c r="K41"/>
-      <c r="L41"/>
       <c r="M41">
         <v>1</v>
       </c>
@@ -9126,7 +9128,6 @@
       <c r="AH41">
         <v>2</v>
       </c>
-      <c r="AI41"/>
       <c r="AJ41">
         <v>3</v>
       </c>
@@ -9509,7 +9510,6 @@
       <c r="AE43">
         <v>3</v>
       </c>
-      <c r="AF43"/>
       <c r="AG43">
         <v>3</v>
       </c>
@@ -9880,7 +9880,6 @@
       <c r="X45">
         <v>2</v>
       </c>
-      <c r="Y45"/>
       <c r="Z45">
         <v>2</v>
       </c>
@@ -10633,11 +10632,9 @@
       <c r="N49">
         <v>5</v>
       </c>
-      <c r="O49"/>
       <c r="P49">
         <v>1</v>
       </c>
-      <c r="Q49"/>
       <c r="R49">
         <v>5</v>
       </c>
@@ -11414,7 +11411,6 @@
       <c r="M53">
         <v>5</v>
       </c>
-      <c r="N53"/>
       <c r="O53">
         <v>5</v>
       </c>
@@ -11439,7 +11435,6 @@
       <c r="V53">
         <v>3</v>
       </c>
-      <c r="W53"/>
       <c r="X53">
         <v>4</v>
       </c>
@@ -11455,8 +11450,6 @@
       <c r="AB53">
         <v>5</v>
       </c>
-      <c r="AC53"/>
-      <c r="AD53"/>
       <c r="AE53">
         <v>1</v>
       </c>
@@ -14764,7 +14757,6 @@
       <c r="P70">
         <v>3</v>
       </c>
-      <c r="Q70"/>
       <c r="R70">
         <v>3</v>
       </c>
@@ -15356,7 +15348,6 @@
       <c r="R73">
         <v>1</v>
       </c>
-      <c r="S73"/>
       <c r="T73">
         <v>1</v>
       </c>
@@ -15375,7 +15366,6 @@
       <c r="Y73">
         <v>3</v>
       </c>
-      <c r="Z73"/>
       <c r="AA73">
         <v>2</v>
       </c>
@@ -15406,7 +15396,6 @@
       <c r="AJ73">
         <v>2</v>
       </c>
-      <c r="AK73"/>
       <c r="AL73">
         <v>3</v>
       </c>
@@ -15768,7 +15757,6 @@
       <c r="Z75">
         <v>5</v>
       </c>
-      <c r="AA75"/>
       <c r="AB75">
         <v>2</v>
       </c>
@@ -15790,7 +15778,6 @@
       <c r="AH75">
         <v>5</v>
       </c>
-      <c r="AI75"/>
       <c r="AJ75">
         <v>2</v>
       </c>
@@ -15866,7 +15853,6 @@
       <c r="BH75">
         <v>5</v>
       </c>
-      <c r="BI75"/>
       <c r="BJ75">
         <v>1</v>
       </c>
@@ -17117,7 +17103,6 @@
       <c r="R82">
         <v>2</v>
       </c>
-      <c r="S82"/>
       <c r="T82">
         <v>2</v>
       </c>
@@ -17217,7 +17202,6 @@
       <c r="AZ82">
         <v>4</v>
       </c>
-      <c r="BA82"/>
       <c r="BB82">
         <v>2</v>
       </c>
@@ -18702,7 +18686,6 @@
       <c r="W90">
         <v>4</v>
       </c>
-      <c r="X90"/>
       <c r="Y90">
         <v>4</v>
       </c>
@@ -24127,7 +24110,6 @@
       <c r="BK117">
         <v>4</v>
       </c>
-      <c r="BL117"/>
       <c r="BM117">
         <v>1</v>
       </c>
@@ -24480,7 +24462,6 @@
       <c r="AX119">
         <v>4</v>
       </c>
-      <c r="AY119"/>
       <c r="AZ119">
         <v>3</v>
       </c>
@@ -24675,7 +24656,6 @@
       <c r="AX120">
         <v>1</v>
       </c>
-      <c r="AY120"/>
       <c r="AZ120">
         <v>3</v>
       </c>
@@ -24977,7 +24957,6 @@
       <c r="T122">
         <v>2</v>
       </c>
-      <c r="U122"/>
       <c r="V122">
         <v>2</v>
       </c>
@@ -25942,7 +25921,6 @@
       <c r="N127">
         <v>4</v>
       </c>
-      <c r="O127"/>
       <c r="P127">
         <v>3</v>
       </c>
@@ -28176,7 +28154,6 @@
       <c r="AP138">
         <v>5</v>
       </c>
-      <c r="AQ138"/>
       <c r="AR138">
         <v>4</v>
       </c>
@@ -28248,7 +28225,6 @@
       <c r="A139">
         <v>1</v>
       </c>
-      <c r="B139"/>
       <c r="C139">
         <v>8</v>
       </c>
@@ -28294,7 +28270,6 @@
       <c r="Q139">
         <v>3</v>
       </c>
-      <c r="R139"/>
       <c r="S139">
         <v>1</v>
       </c>
@@ -28313,7 +28288,6 @@
       <c r="X139">
         <v>5</v>
       </c>
-      <c r="Y139"/>
       <c r="Z139">
         <v>2</v>
       </c>
@@ -28365,7 +28339,6 @@
       <c r="AP139">
         <v>5</v>
       </c>
-      <c r="AQ139"/>
       <c r="AR139">
         <v>3</v>
       </c>
@@ -28390,7 +28363,6 @@
       <c r="AY139">
         <v>2</v>
       </c>
-      <c r="AZ139"/>
       <c r="BA139">
         <v>4</v>
       </c>
@@ -29289,7 +29261,6 @@
       <c r="W144">
         <v>5</v>
       </c>
-      <c r="X144"/>
       <c r="Y144">
         <v>4</v>
       </c>
@@ -30478,7 +30449,6 @@
       <c r="Z150">
         <v>5</v>
       </c>
-      <c r="AA150"/>
       <c r="AB150">
         <v>1</v>
       </c>
@@ -30739,7 +30709,6 @@
       <c r="AV151">
         <v>5</v>
       </c>
-      <c r="AW151"/>
       <c r="AX151">
         <v>1</v>
       </c>
@@ -32340,7 +32309,6 @@
       <c r="BE159">
         <v>2</v>
       </c>
-      <c r="BF159"/>
       <c r="BG159">
         <v>5</v>
       </c>
@@ -34221,7 +34189,6 @@
       <c r="AD169">
         <v>4</v>
       </c>
-      <c r="AE169"/>
       <c r="AF169">
         <v>4</v>
       </c>
@@ -35532,7 +35499,6 @@
       <c r="L176">
         <v>2</v>
       </c>
-      <c r="M176"/>
       <c r="N176">
         <v>3</v>
       </c>
@@ -35751,7 +35717,6 @@
       <c r="T177">
         <v>3</v>
       </c>
-      <c r="U177"/>
       <c r="V177">
         <v>4</v>
       </c>
@@ -35773,8 +35738,6 @@
       <c r="AB177">
         <v>1</v>
       </c>
-      <c r="AC177"/>
-      <c r="AD177"/>
       <c r="AE177">
         <v>5</v>
       </c>
@@ -36115,7 +36078,6 @@
       <c r="L179">
         <v>1</v>
       </c>
-      <c r="M179"/>
       <c r="N179">
         <v>2</v>
       </c>
@@ -36245,7 +36207,6 @@
       <c r="BD179">
         <v>2</v>
       </c>
-      <c r="BE179"/>
       <c r="BF179">
         <v>4</v>
       </c>
@@ -37601,7 +37562,6 @@
       <c r="AY186">
         <v>4</v>
       </c>
-      <c r="AZ186"/>
       <c r="BA186">
         <v>3</v>
       </c>
@@ -38258,7 +38218,6 @@
       <c r="H190">
         <v>5</v>
       </c>
-      <c r="I190"/>
       <c r="J190">
         <v>2</v>
       </c>
@@ -38862,7 +38821,6 @@
       <c r="M193">
         <v>4</v>
       </c>
-      <c r="N193"/>
       <c r="O193">
         <v>3</v>
       </c>
@@ -40165,7 +40123,6 @@
       <c r="BD199">
         <v>4</v>
       </c>
-      <c r="BE199"/>
       <c r="BF199">
         <v>4</v>
       </c>
@@ -40175,7 +40132,6 @@
       <c r="BH199">
         <v>4</v>
       </c>
-      <c r="BI199"/>
       <c r="BJ199">
         <v>2</v>
       </c>
@@ -40331,7 +40287,6 @@
       <c r="AU200">
         <v>3</v>
       </c>
-      <c r="AV200"/>
       <c r="AW200">
         <v>3</v>
       </c>
@@ -40815,7 +40770,6 @@
       <c r="L203">
         <v>2</v>
       </c>
-      <c r="M203"/>
       <c r="N203">
         <v>1</v>
       </c>
@@ -41201,7 +41155,6 @@
       <c r="J205">
         <v>3</v>
       </c>
-      <c r="K205"/>
       <c r="L205">
         <v>3</v>
       </c>
@@ -41683,7 +41636,6 @@
       <c r="AN207">
         <v>2</v>
       </c>
-      <c r="AO207"/>
       <c r="AP207">
         <v>5</v>
       </c>
@@ -42579,12 +42531,6 @@
       <c r="M212">
         <v>5</v>
       </c>
-      <c r="N212"/>
-      <c r="O212"/>
-      <c r="P212"/>
-      <c r="Q212"/>
-      <c r="R212"/>
-      <c r="S212"/>
       <c r="T212">
         <v>2</v>
       </c>
@@ -43740,7 +43686,6 @@
       <c r="J218">
         <v>4</v>
       </c>
-      <c r="K218"/>
       <c r="L218">
         <v>1</v>
       </c>
@@ -43831,7 +43776,6 @@
       <c r="AO218">
         <v>3</v>
       </c>
-      <c r="AP218"/>
       <c r="AQ218">
         <v>2</v>
       </c>
@@ -43853,7 +43797,6 @@
       <c r="AW218">
         <v>5</v>
       </c>
-      <c r="AX218"/>
       <c r="AY218">
         <v>4</v>
       </c>
@@ -43872,7 +43815,6 @@
       <c r="BD218">
         <v>1</v>
       </c>
-      <c r="BE218"/>
       <c r="BF218">
         <v>4</v>
       </c>
@@ -44353,7 +44295,6 @@
       <c r="T221">
         <v>1</v>
       </c>
-      <c r="U221"/>
       <c r="V221">
         <v>5</v>
       </c>
@@ -45238,7 +45179,6 @@
       <c r="BA225">
         <v>1</v>
       </c>
-      <c r="BB225"/>
       <c r="BC225">
         <v>1</v>
       </c>
@@ -45752,8 +45692,6 @@
       <c r="AB228">
         <v>2</v>
       </c>
-      <c r="AC228"/>
-      <c r="AD228"/>
       <c r="AE228">
         <v>2</v>
       </c>
@@ -46381,7 +46319,6 @@
       <c r="AP231">
         <v>4</v>
       </c>
-      <c r="AQ231"/>
       <c r="AR231">
         <v>3</v>
       </c>
@@ -46609,7 +46546,6 @@
       <c r="BA232">
         <v>5</v>
       </c>
-      <c r="BB232"/>
       <c r="BC232">
         <v>1</v>
       </c>
@@ -47890,7 +47826,6 @@
       <c r="W239">
         <v>2</v>
       </c>
-      <c r="X239"/>
       <c r="Y239">
         <v>1</v>
       </c>
@@ -47912,7 +47847,6 @@
       <c r="AE239">
         <v>2</v>
       </c>
-      <c r="AF239"/>
       <c r="AG239">
         <v>1</v>
       </c>
@@ -47949,7 +47883,6 @@
       <c r="AR239">
         <v>2</v>
       </c>
-      <c r="AS239"/>
       <c r="AT239">
         <v>2</v>
       </c>
@@ -48815,7 +48748,6 @@
       <c r="E244">
         <v>1</v>
       </c>
-      <c r="F244"/>
       <c r="G244">
         <v>1</v>
       </c>
@@ -49037,7 +48969,6 @@
       <c r="N245">
         <v>2</v>
       </c>
-      <c r="O245"/>
       <c r="P245">
         <v>2</v>
       </c>
@@ -49116,7 +49047,6 @@
       <c r="AO245">
         <v>3</v>
       </c>
-      <c r="AP245"/>
       <c r="AQ245">
         <v>2</v>
       </c>
@@ -49726,7 +49656,6 @@
       <c r="AV248">
         <v>4</v>
       </c>
-      <c r="AW248"/>
       <c r="AX248">
         <v>1</v>
       </c>
@@ -49903,7 +49832,6 @@
       <c r="AP249">
         <v>4</v>
       </c>
-      <c r="AQ249"/>
       <c r="AR249">
         <v>2</v>
       </c>
@@ -49979,7 +49907,7 @@
         <v>16</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D250">
         <v>2</v>
@@ -50170,7 +50098,7 @@
     </row>
     <row r="251" spans="3:65">
       <c r="C251">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -50363,9 +50291,8 @@
       <c r="A252">
         <v>1</v>
       </c>
-      <c r="B252"/>
       <c r="C252">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D252">
         <v>2</v>
@@ -50562,7 +50489,7 @@
         <v>16</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -50759,7 +50686,7 @@
         <v>17</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D254">
         <v>2</v>
@@ -50956,7 +50883,7 @@
         <v>16</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -51147,7 +51074,7 @@
     </row>
     <row r="256" spans="3:65">
       <c r="C256">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -51344,7 +51271,7 @@
         <v>16</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -51541,7 +51468,7 @@
         <v>15</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -51588,7 +51515,6 @@
       <c r="R258">
         <v>4</v>
       </c>
-      <c r="S258"/>
       <c r="T258">
         <v>1</v>
       </c>
@@ -51736,7 +51662,7 @@
         <v>16</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -51933,7 +51859,7 @@
         <v>16</v>
       </c>
       <c r="C260">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D260">
         <v>1</v>
@@ -52130,7 +52056,7 @@
         <v>16</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D261">
         <v>2</v>
@@ -52327,7 +52253,7 @@
         <v>15</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -52521,7 +52447,7 @@
         <v>15</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -52718,7 +52644,7 @@
         <v>16</v>
       </c>
       <c r="C264">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -52915,7 +52841,7 @@
         <v>15</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -53106,7 +53032,7 @@
     </row>
     <row r="266" spans="3:65">
       <c r="C266">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -53303,7 +53229,7 @@
         <v>16</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D267">
         <v>2</v>
@@ -53500,7 +53426,7 @@
         <v>15</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D268">
         <v>2</v>
@@ -53697,7 +53623,7 @@
         <v>15</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D269">
         <v>2</v>
@@ -53894,7 +53820,7 @@
         <v>16</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D270">
         <v>2</v>
@@ -54091,7 +54017,7 @@
         <v>15</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D271">
         <v>2</v>
@@ -54288,7 +54214,7 @@
         <v>16</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -54311,7 +54237,6 @@
       <c r="J272">
         <v>2</v>
       </c>
-      <c r="K272"/>
       <c r="L272">
         <v>2</v>
       </c>
@@ -54342,7 +54267,6 @@
       <c r="U272">
         <v>5</v>
       </c>
-      <c r="V272"/>
       <c r="W272">
         <v>2</v>
       </c>
@@ -54481,7 +54405,7 @@
         <v>15</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -54678,7 +54602,7 @@
         <v>16</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -54740,7 +54664,6 @@
       <c r="W274">
         <v>5</v>
       </c>
-      <c r="X274"/>
       <c r="Y274">
         <v>1</v>
       </c>
@@ -54869,9 +54792,8 @@
       <c r="A275">
         <v>1</v>
       </c>
-      <c r="B275"/>
       <c r="C275">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -55068,7 +54990,7 @@
         <v>15</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D276">
         <v>2</v>
@@ -55265,7 +55187,7 @@
         <v>15</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -55462,7 +55384,7 @@
         <v>16</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -55659,7 +55581,7 @@
         <v>15</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -55856,7 +55778,7 @@
         <v>15</v>
       </c>
       <c r="C280">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -56053,7 +55975,7 @@
         <v>15</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -56250,7 +56172,7 @@
         <v>15</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D282">
         <v>2</v>
@@ -56447,7 +56369,7 @@
         <v>16</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D283">
         <v>1</v>
@@ -56644,7 +56566,7 @@
         <v>15</v>
       </c>
       <c r="C284">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D284">
         <v>1</v>
@@ -56841,7 +56763,7 @@
         <v>15</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -57038,7 +56960,7 @@
         <v>15</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -57229,7 +57151,7 @@
     </row>
     <row r="287" spans="3:65">
       <c r="C287">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D287">
         <v>1</v>
@@ -57426,7 +57348,7 @@
         <v>15</v>
       </c>
       <c r="C288">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D288">
         <v>2</v>
@@ -57617,7 +57539,7 @@
     </row>
     <row r="289" spans="3:65">
       <c r="C289">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D289">
         <v>2</v>
@@ -57808,7 +57730,7 @@
     </row>
     <row r="290" spans="3:65">
       <c r="C290">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -58005,7 +57927,7 @@
         <v>15</v>
       </c>
       <c r="C291">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -58202,7 +58124,7 @@
         <v>15</v>
       </c>
       <c r="C292">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -58399,7 +58321,7 @@
         <v>15</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -58596,7 +58518,7 @@
         <v>15</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -58793,7 +58715,7 @@
         <v>15</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -58990,7 +58912,7 @@
         <v>16</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -59187,7 +59109,7 @@
         <v>16</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -59384,7 +59306,7 @@
         <v>15</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -59437,7 +59359,6 @@
       <c r="T298">
         <v>2</v>
       </c>
-      <c r="U298"/>
       <c r="V298">
         <v>3</v>
       </c>
@@ -59579,7 +59500,7 @@
         <v>14</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D299">
         <v>1</v>
@@ -59776,7 +59697,7 @@
         <v>15</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D300">
         <v>2</v>
@@ -60889,7 +60810,6 @@
       <c r="AS305">
         <v>5</v>
       </c>
-      <c r="AT305"/>
       <c r="AU305">
         <v>2</v>
       </c>
@@ -60908,7 +60828,6 @@
       <c r="AZ305">
         <v>3</v>
       </c>
-      <c r="BA305"/>
       <c r="BB305">
         <v>4</v>
       </c>
@@ -60918,7 +60837,6 @@
       <c r="BD305">
         <v>2</v>
       </c>
-      <c r="BE305"/>
       <c r="BF305">
         <v>4</v>
       </c>
@@ -62187,7 +62105,6 @@
       <c r="V312">
         <v>2</v>
       </c>
-      <c r="W312"/>
       <c r="X312">
         <v>4</v>
       </c>
@@ -65418,7 +65335,6 @@
       <c r="AW328">
         <v>5</v>
       </c>
-      <c r="AX328"/>
       <c r="AY328">
         <v>5</v>
       </c>
@@ -68057,7 +67973,6 @@
       <c r="J342">
         <v>3</v>
       </c>
-      <c r="K342"/>
       <c r="L342">
         <v>2</v>
       </c>
@@ -69655,7 +69570,6 @@
       <c r="R350">
         <v>5</v>
       </c>
-      <c r="S350"/>
       <c r="T350">
         <v>2</v>
       </c>
@@ -72650,7 +72564,6 @@
       <c r="AF365">
         <v>4</v>
       </c>
-      <c r="AG365"/>
       <c r="AH365">
         <v>1</v>
       </c>
@@ -72702,7 +72615,6 @@
       <c r="AX365">
         <v>2</v>
       </c>
-      <c r="AY365"/>
       <c r="AZ365">
         <v>4</v>
       </c>
@@ -78860,7 +78772,6 @@
       <c r="C397">
         <v>11</v>
       </c>
-      <c r="D397"/>
       <c r="E397">
         <v>2</v>
       </c>
@@ -79620,7 +79531,6 @@
       <c r="BH400">
         <v>3</v>
       </c>
-      <c r="BI400"/>
       <c r="BJ400">
         <v>2</v>
       </c>
@@ -80089,7 +79999,6 @@
       <c r="T403">
         <v>1</v>
       </c>
-      <c r="U403"/>
       <c r="V403">
         <v>4</v>
       </c>
